--- a/data/dat_cocoa.xlsx
+++ b/data/dat_cocoa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kboug\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\storytelling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D0DC08-11D6-490D-8DB8-4CDA213EA49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81E6C5-D9AF-422A-A3EC-7294AE0752FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C020628D-915D-45E5-874A-D9010215F66F}"/>
   </bookViews>
@@ -41,25 +41,25 @@
     <t>cocoa_beans</t>
   </si>
   <si>
-    <t>Africa (FAO)</t>
-  </si>
-  <si>
-    <t>Asia (FAO)</t>
-  </si>
-  <si>
     <t>North America</t>
-  </si>
-  <si>
-    <t>Oceania (FAO)</t>
-  </si>
-  <si>
-    <t>South America (FAO)</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
     <t>region</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>South America</t>
   </si>
 </sst>
 </file>
@@ -414,17 +414,20 @@
   <dimension ref="A1:C306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -432,7 +435,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1961</v>
@@ -443,7 +446,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1962</v>
@@ -454,7 +457,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1963</v>
@@ -465,7 +468,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1964</v>
@@ -476,7 +479,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1965</v>
@@ -487,7 +490,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1966</v>
@@ -498,7 +501,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1967</v>
@@ -509,7 +512,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>1968</v>
@@ -520,7 +523,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>1969</v>
@@ -531,7 +534,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>1970</v>
@@ -542,7 +545,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>1971</v>
@@ -553,7 +556,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>1972</v>
@@ -564,7 +567,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>1973</v>
@@ -575,7 +578,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>1974</v>
@@ -586,7 +589,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>1975</v>
@@ -597,7 +600,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>1976</v>
@@ -608,7 +611,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>1977</v>
@@ -619,7 +622,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>1978</v>
@@ -630,7 +633,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>1979</v>
@@ -641,7 +644,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>1980</v>
@@ -652,7 +655,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>1981</v>
@@ -663,7 +666,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>1982</v>
@@ -674,7 +677,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>1983</v>
@@ -685,7 +688,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>1984</v>
@@ -696,7 +699,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <v>1985</v>
@@ -707,7 +710,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>1986</v>
@@ -718,7 +721,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>1987</v>
@@ -729,7 +732,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <v>1988</v>
@@ -740,7 +743,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>1989</v>
@@ -751,7 +754,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>1990</v>
@@ -762,7 +765,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>1991</v>
@@ -773,7 +776,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>1992</v>
@@ -784,7 +787,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>1993</v>
@@ -795,7 +798,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>1994</v>
@@ -806,7 +809,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>1995</v>
@@ -817,7 +820,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>1996</v>
@@ -828,7 +831,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>1997</v>
@@ -839,7 +842,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>1998</v>
@@ -850,7 +853,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>1999</v>
@@ -861,7 +864,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>2000</v>
@@ -872,7 +875,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>2001</v>
@@ -883,7 +886,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>2002</v>
@@ -894,7 +897,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>2003</v>
@@ -905,7 +908,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>2004</v>
@@ -916,7 +919,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>2005</v>
@@ -927,7 +930,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>2006</v>
@@ -938,7 +941,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>2007</v>
@@ -949,7 +952,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B49">
         <v>2008</v>
@@ -960,7 +963,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>2009</v>
@@ -971,7 +974,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>2010</v>
@@ -982,7 +985,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <v>2011</v>
@@ -993,7 +996,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>2012</v>
@@ -1004,7 +1007,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>2013</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <v>2014</v>
@@ -1026,7 +1029,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>2015</v>
@@ -1037,7 +1040,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <v>2016</v>
@@ -1048,7 +1051,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>2017</v>
@@ -1059,7 +1062,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>2018</v>
@@ -1070,7 +1073,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>2019</v>
@@ -1081,7 +1084,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>2020</v>
@@ -1092,7 +1095,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>2021</v>
@@ -1103,7 +1106,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <v>1961</v>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <v>1962</v>
@@ -1125,7 +1128,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B65">
         <v>1963</v>
@@ -1136,7 +1139,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>1964</v>
@@ -1147,7 +1150,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B67">
         <v>1965</v>
@@ -1158,7 +1161,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B68">
         <v>1966</v>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B69">
         <v>1967</v>
@@ -1180,7 +1183,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B70">
         <v>1968</v>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B71">
         <v>1969</v>
@@ -1202,7 +1205,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B72">
         <v>1970</v>
@@ -1213,7 +1216,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <v>1971</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B74">
         <v>1972</v>
@@ -1235,7 +1238,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B75">
         <v>1973</v>
@@ -1246,7 +1249,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B76">
         <v>1974</v>
@@ -1257,7 +1260,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B77">
         <v>1975</v>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B78">
         <v>1976</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B79">
         <v>1977</v>
@@ -1290,7 +1293,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <v>1978</v>
@@ -1301,7 +1304,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B81">
         <v>1979</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B82">
         <v>1980</v>
@@ -1323,7 +1326,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B83">
         <v>1981</v>
@@ -1334,7 +1337,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B84">
         <v>1982</v>
@@ -1345,7 +1348,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B85">
         <v>1983</v>
@@ -1356,7 +1359,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B86">
         <v>1984</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B87">
         <v>1985</v>
@@ -1378,7 +1381,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B88">
         <v>1986</v>
@@ -1389,7 +1392,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B89">
         <v>1987</v>
@@ -1400,7 +1403,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B90">
         <v>1988</v>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B91">
         <v>1989</v>
@@ -1422,7 +1425,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B92">
         <v>1990</v>
@@ -1433,7 +1436,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B93">
         <v>1991</v>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <v>1992</v>
@@ -1455,7 +1458,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B95">
         <v>1993</v>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B96">
         <v>1994</v>
@@ -1477,7 +1480,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B97">
         <v>1995</v>
@@ -1488,7 +1491,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B98">
         <v>1996</v>
@@ -1499,7 +1502,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B99">
         <v>1997</v>
@@ -1510,7 +1513,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B100">
         <v>1998</v>
@@ -1521,7 +1524,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B101">
         <v>1999</v>
@@ -1532,7 +1535,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B102">
         <v>2000</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B103">
         <v>2001</v>
@@ -1554,7 +1557,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B104">
         <v>2002</v>
@@ -1565,7 +1568,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B105">
         <v>2003</v>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B106">
         <v>2004</v>
@@ -1587,7 +1590,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B107">
         <v>2005</v>
@@ -1598,7 +1601,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B108">
         <v>2006</v>
@@ -1609,7 +1612,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B109">
         <v>2007</v>
@@ -1620,7 +1623,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B110">
         <v>2008</v>
@@ -1631,7 +1634,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B111">
         <v>2009</v>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B112">
         <v>2010</v>
@@ -1653,7 +1656,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B113">
         <v>2011</v>
@@ -1664,7 +1667,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B114">
         <v>2012</v>
@@ -1675,7 +1678,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B115">
         <v>2013</v>
@@ -1686,7 +1689,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B116">
         <v>2014</v>
@@ -1697,7 +1700,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B117">
         <v>2015</v>
@@ -1708,7 +1711,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B118">
         <v>2016</v>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B119">
         <v>2017</v>
@@ -1730,7 +1733,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B120">
         <v>2018</v>
@@ -1741,7 +1744,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B121">
         <v>2019</v>
@@ -1752,7 +1755,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B122">
         <v>2020</v>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B123">
         <v>2021</v>
@@ -1774,7 +1777,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B124">
         <v>1961</v>
@@ -1785,7 +1788,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B125">
         <v>1962</v>
@@ -1796,7 +1799,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126">
         <v>1963</v>
@@ -1807,7 +1810,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B127">
         <v>1964</v>
@@ -1818,7 +1821,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B128">
         <v>1965</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B129">
         <v>1966</v>
@@ -1840,7 +1843,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B130">
         <v>1967</v>
@@ -1851,7 +1854,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B131">
         <v>1968</v>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B132">
         <v>1969</v>
@@ -1873,7 +1876,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B133">
         <v>1970</v>
@@ -1884,7 +1887,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B134">
         <v>1971</v>
@@ -1895,7 +1898,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B135">
         <v>1972</v>
@@ -1906,7 +1909,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B136">
         <v>1973</v>
@@ -1917,7 +1920,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B137">
         <v>1974</v>
@@ -1928,7 +1931,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B138">
         <v>1975</v>
@@ -1939,7 +1942,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B139">
         <v>1976</v>
@@ -1950,7 +1953,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B140">
         <v>1977</v>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B141">
         <v>1978</v>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B142">
         <v>1979</v>
@@ -1983,7 +1986,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B143">
         <v>1980</v>
@@ -1994,7 +1997,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B144">
         <v>1981</v>
@@ -2005,7 +2008,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B145">
         <v>1982</v>
@@ -2016,7 +2019,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B146">
         <v>1983</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B147">
         <v>1984</v>
@@ -2038,7 +2041,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B148">
         <v>1985</v>
@@ -2049,7 +2052,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B149">
         <v>1986</v>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B150">
         <v>1987</v>
@@ -2071,7 +2074,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B151">
         <v>1988</v>
@@ -2082,7 +2085,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B152">
         <v>1989</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B153">
         <v>1990</v>
@@ -2104,7 +2107,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B154">
         <v>1991</v>
@@ -2115,7 +2118,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B155">
         <v>1992</v>
@@ -2126,7 +2129,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B156">
         <v>1993</v>
@@ -2137,7 +2140,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B157">
         <v>1994</v>
@@ -2148,7 +2151,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B158">
         <v>1995</v>
@@ -2159,7 +2162,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B159">
         <v>1996</v>
@@ -2170,7 +2173,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B160">
         <v>1997</v>
@@ -2181,7 +2184,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B161">
         <v>1998</v>
@@ -2192,7 +2195,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B162">
         <v>1999</v>
@@ -2203,7 +2206,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B163">
         <v>2000</v>
@@ -2214,7 +2217,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B164">
         <v>2001</v>
@@ -2225,7 +2228,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B165">
         <v>2002</v>
@@ -2236,7 +2239,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B166">
         <v>2003</v>
@@ -2247,7 +2250,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B167">
         <v>2004</v>
@@ -2258,7 +2261,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B168">
         <v>2005</v>
@@ -2269,7 +2272,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B169">
         <v>2006</v>
@@ -2280,7 +2283,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B170">
         <v>2007</v>
@@ -2291,7 +2294,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B171">
         <v>2008</v>
@@ -2302,7 +2305,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B172">
         <v>2009</v>
@@ -2313,7 +2316,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B173">
         <v>2010</v>
@@ -2324,7 +2327,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B174">
         <v>2011</v>
@@ -2335,7 +2338,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B175">
         <v>2012</v>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B176">
         <v>2013</v>
@@ -2357,7 +2360,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B177">
         <v>2014</v>
@@ -2368,7 +2371,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B178">
         <v>2015</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B179">
         <v>2016</v>
@@ -2390,7 +2393,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B180">
         <v>2017</v>
@@ -2401,7 +2404,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B181">
         <v>2018</v>
@@ -2412,7 +2415,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B182">
         <v>2019</v>
@@ -2423,7 +2426,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B183">
         <v>2020</v>
@@ -2434,7 +2437,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B184">
         <v>2021</v>
@@ -2445,7 +2448,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B185">
         <v>1961</v>
@@ -2456,7 +2459,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B186">
         <v>1962</v>
@@ -2467,7 +2470,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B187">
         <v>1963</v>
@@ -2478,7 +2481,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B188">
         <v>1964</v>
@@ -2489,7 +2492,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B189">
         <v>1965</v>
@@ -2500,7 +2503,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B190">
         <v>1966</v>
@@ -2511,7 +2514,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B191">
         <v>1967</v>
@@ -2522,7 +2525,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B192">
         <v>1968</v>
@@ -2533,7 +2536,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B193">
         <v>1969</v>
@@ -2544,7 +2547,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B194">
         <v>1970</v>
@@ -2555,7 +2558,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B195">
         <v>1971</v>
@@ -2566,7 +2569,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B196">
         <v>1972</v>
@@ -2577,7 +2580,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B197">
         <v>1973</v>
@@ -2588,7 +2591,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B198">
         <v>1974</v>
@@ -2599,7 +2602,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B199">
         <v>1975</v>
@@ -2610,7 +2613,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B200">
         <v>1976</v>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B201">
         <v>1977</v>
@@ -2632,7 +2635,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B202">
         <v>1978</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B203">
         <v>1979</v>
@@ -2654,7 +2657,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B204">
         <v>1980</v>
@@ -2665,7 +2668,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B205">
         <v>1981</v>
@@ -2676,7 +2679,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B206">
         <v>1982</v>
@@ -2687,7 +2690,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B207">
         <v>1983</v>
@@ -2698,7 +2701,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B208">
         <v>1984</v>
@@ -2709,7 +2712,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B209">
         <v>1985</v>
@@ -2720,7 +2723,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B210">
         <v>1986</v>
@@ -2731,7 +2734,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B211">
         <v>1987</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B212">
         <v>1988</v>
@@ -2753,7 +2756,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B213">
         <v>1989</v>
@@ -2764,7 +2767,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B214">
         <v>1990</v>
@@ -2775,7 +2778,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B215">
         <v>1991</v>
@@ -2786,7 +2789,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B216">
         <v>1992</v>
@@ -2797,7 +2800,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B217">
         <v>1993</v>
@@ -2808,7 +2811,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B218">
         <v>1994</v>
@@ -2819,7 +2822,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B219">
         <v>1995</v>
@@ -2830,7 +2833,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B220">
         <v>1996</v>
@@ -2841,7 +2844,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B221">
         <v>1997</v>
@@ -2852,7 +2855,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B222">
         <v>1998</v>
@@ -2863,7 +2866,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B223">
         <v>1999</v>
@@ -2874,7 +2877,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B224">
         <v>2000</v>
@@ -2885,7 +2888,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B225">
         <v>2001</v>
@@ -2896,7 +2899,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B226">
         <v>2002</v>
@@ -2907,7 +2910,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B227">
         <v>2003</v>
@@ -2918,7 +2921,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B228">
         <v>2004</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B229">
         <v>2005</v>
@@ -2940,7 +2943,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B230">
         <v>2006</v>
@@ -2951,7 +2954,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B231">
         <v>2007</v>
@@ -2962,7 +2965,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B232">
         <v>2008</v>
@@ -2973,7 +2976,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B233">
         <v>2009</v>
@@ -2984,7 +2987,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B234">
         <v>2010</v>
@@ -2995,7 +2998,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B235">
         <v>2011</v>
@@ -3006,7 +3009,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B236">
         <v>2012</v>
@@ -3017,7 +3020,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B237">
         <v>2013</v>
@@ -3028,7 +3031,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B238">
         <v>2014</v>
@@ -3039,7 +3042,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B239">
         <v>2015</v>
@@ -3050,7 +3053,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B240">
         <v>2016</v>
@@ -3061,7 +3064,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B241">
         <v>2017</v>
@@ -3072,7 +3075,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B242">
         <v>2018</v>
@@ -3083,7 +3086,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B243">
         <v>2019</v>
@@ -3094,7 +3097,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B244">
         <v>2020</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B245">
         <v>2021</v>
@@ -3116,7 +3119,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B246">
         <v>1961</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B247">
         <v>1962</v>
@@ -3138,7 +3141,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B248">
         <v>1963</v>
@@ -3149,7 +3152,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B249">
         <v>1964</v>
@@ -3160,7 +3163,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B250">
         <v>1965</v>
@@ -3171,7 +3174,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B251">
         <v>1966</v>
@@ -3182,7 +3185,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B252">
         <v>1967</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B253">
         <v>1968</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B254">
         <v>1969</v>
@@ -3215,7 +3218,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B255">
         <v>1970</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B256">
         <v>1971</v>
@@ -3237,7 +3240,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B257">
         <v>1972</v>
@@ -3248,7 +3251,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B258">
         <v>1973</v>
@@ -3259,7 +3262,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B259">
         <v>1974</v>
@@ -3270,7 +3273,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B260">
         <v>1975</v>
@@ -3281,7 +3284,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B261">
         <v>1976</v>
@@ -3292,7 +3295,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B262">
         <v>1977</v>
@@ -3303,7 +3306,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B263">
         <v>1978</v>
@@ -3314,7 +3317,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B264">
         <v>1979</v>
@@ -3325,7 +3328,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B265">
         <v>1980</v>
@@ -3336,7 +3339,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B266">
         <v>1981</v>
@@ -3347,7 +3350,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B267">
         <v>1982</v>
@@ -3358,7 +3361,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B268">
         <v>1983</v>
@@ -3369,7 +3372,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B269">
         <v>1984</v>
@@ -3380,7 +3383,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B270">
         <v>1985</v>
@@ -3391,7 +3394,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B271">
         <v>1986</v>
@@ -3402,7 +3405,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B272">
         <v>1987</v>
@@ -3413,7 +3416,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B273">
         <v>1988</v>
@@ -3424,7 +3427,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B274">
         <v>1989</v>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B275">
         <v>1990</v>
@@ -3446,7 +3449,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B276">
         <v>1991</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B277">
         <v>1992</v>
@@ -3468,7 +3471,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B278">
         <v>1993</v>
@@ -3479,7 +3482,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B279">
         <v>1994</v>
@@ -3490,7 +3493,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B280">
         <v>1995</v>
@@ -3501,7 +3504,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B281">
         <v>1996</v>
@@ -3512,7 +3515,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B282">
         <v>1997</v>
@@ -3523,7 +3526,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B283">
         <v>1998</v>
@@ -3534,7 +3537,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B284">
         <v>1999</v>
@@ -3545,7 +3548,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B285">
         <v>2000</v>
@@ -3556,7 +3559,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B286">
         <v>2001</v>
@@ -3567,7 +3570,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B287">
         <v>2002</v>
@@ -3578,7 +3581,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B288">
         <v>2003</v>
@@ -3589,7 +3592,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B289">
         <v>2004</v>
@@ -3600,7 +3603,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B290">
         <v>2005</v>
@@ -3611,7 +3614,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B291">
         <v>2006</v>
@@ -3622,7 +3625,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B292">
         <v>2007</v>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B293">
         <v>2008</v>
@@ -3644,7 +3647,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B294">
         <v>2009</v>
@@ -3655,7 +3658,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B295">
         <v>2010</v>
@@ -3666,7 +3669,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B296">
         <v>2011</v>
@@ -3677,7 +3680,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B297">
         <v>2012</v>
@@ -3688,7 +3691,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B298">
         <v>2013</v>
@@ -3699,7 +3702,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B299">
         <v>2014</v>
@@ -3710,7 +3713,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B300">
         <v>2015</v>
@@ -3721,7 +3724,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B301">
         <v>2016</v>
@@ -3732,7 +3735,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B302">
         <v>2017</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B303">
         <v>2018</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B304">
         <v>2019</v>
@@ -3765,7 +3768,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B305">
         <v>2020</v>
@@ -3776,7 +3779,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B306">
         <v>2021</v>
